--- a/model_inputs/financial_reports/imaging/PHSA.xlsx
+++ b/model_inputs/financial_reports/imaging/PHSA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3DA203-BFEF-4E1D-BC0E-32095E08443A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BC6D42-59F9-46DD-8BFC-F43EE610E055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,8 +569,8 @@
         <v>1613</v>
       </c>
       <c r="B2" s="4">
-        <f>C2-D2-E2-F2</f>
-        <v>427259.75</v>
+        <f>C2-D2</f>
+        <v>574016.72</v>
       </c>
       <c r="C2" s="5">
         <v>574016.72</v>
@@ -585,8 +585,8 @@
         <v>146756.97</v>
       </c>
       <c r="G2" s="6">
-        <f>H2-I2-J2-K2</f>
-        <v>341000</v>
+        <f>H2-I2</f>
+        <v>587732</v>
       </c>
       <c r="H2" s="5">
         <v>587732</v>
@@ -606,8 +606,8 @@
         <v>1713</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B6" si="0">C3-D3-E3-F3</f>
-        <v>224633.75</v>
+        <f t="shared" ref="B3:B6" si="0">C3-D3</f>
+        <v>330762.73</v>
       </c>
       <c r="C3" s="5">
         <v>330762.73</v>
@@ -622,8 +622,8 @@
         <v>106128.98</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G6" si="1">H3-I3-J3-K3</f>
-        <v>341000</v>
+        <f t="shared" ref="G3:G6" si="1">H3-I3</f>
+        <v>587732</v>
       </c>
       <c r="H3" s="5">
         <v>587732</v>
@@ -644,7 +644,7 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>73537.520000000019</v>
+        <v>565526.04</v>
       </c>
       <c r="C4" s="5">
         <v>565526.04</v>
@@ -660,7 +660,7 @@
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>341000</v>
+        <v>587732</v>
       </c>
       <c r="H4" s="5">
         <v>587732</v>
@@ -681,7 +681,7 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>34919.289999999921</v>
+        <v>872219.6</v>
       </c>
       <c r="C5" s="5">
         <v>872219.6</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>87732</v>
+        <v>587732</v>
       </c>
       <c r="H5" s="7">
         <v>587732</v>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>176081.01999999979</v>
+        <v>1443885.38</v>
       </c>
       <c r="C6" s="5">
         <v>1443885.38</v>
@@ -734,7 +734,7 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>341000</v>
+        <v>587732</v>
       </c>
       <c r="H6" s="5">
         <v>587732</v>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,8 +817,8 @@
         <v>1613</v>
       </c>
       <c r="B2" s="4">
-        <f t="shared" ref="B2:B4" si="0">C2-D2-E2-F2</f>
-        <v>128509.73999999999</v>
+        <f>C2-D2</f>
+        <v>186472.3</v>
       </c>
       <c r="C2" s="5">
         <v>186472.3</v>
@@ -833,8 +833,8 @@
         <v>57962.559999999998</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G5" si="1">H2-I2-J2-K2</f>
-        <v>217451</v>
+        <f>H2-I2</f>
+        <v>277451</v>
       </c>
       <c r="H2" s="5">
         <v>277451</v>
@@ -854,8 +854,8 @@
         <v>1713</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" si="0"/>
-        <v>107835.51000000001</v>
+        <f t="shared" ref="B3:B6" si="0">C3-D3</f>
+        <v>201856.67</v>
       </c>
       <c r="C3" s="5">
         <v>201856.67</v>
@@ -870,8 +870,8 @@
         <v>94021.16</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="1"/>
-        <v>217451</v>
+        <f t="shared" ref="G3:G6" si="1">H3-I3</f>
+        <v>277451</v>
       </c>
       <c r="H3" s="5">
         <v>277451</v>
@@ -892,7 +892,7 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>82756.040000000008</v>
+        <v>163654.47</v>
       </c>
       <c r="C4" s="5">
         <v>163654.47</v>
@@ -908,7 +908,7 @@
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>217451</v>
+        <v>277451</v>
       </c>
       <c r="H4" s="5">
         <v>277451</v>
@@ -928,8 +928,8 @@
         <v>1913</v>
       </c>
       <c r="B5" s="4">
-        <f>C5-D5-E5-F5</f>
-        <v>75668.179999999993</v>
+        <f t="shared" si="0"/>
+        <v>324197.19</v>
       </c>
       <c r="C5" s="5">
         <v>324197.19</v>
@@ -945,7 +945,7 @@
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>197451</v>
+        <v>277451</v>
       </c>
       <c r="H5" s="7">
         <v>277451</v>
@@ -965,8 +965,8 @@
         <v>2013</v>
       </c>
       <c r="B6" s="4">
-        <f>C6-D6-E6-F6</f>
-        <v>44068.799999999988</v>
+        <f t="shared" si="0"/>
+        <v>248063.24</v>
       </c>
       <c r="C6" s="5">
         <v>248063.24</v>
@@ -981,8 +981,8 @@
         <v>203994.44</v>
       </c>
       <c r="G6" s="6">
-        <f>H6-I6-J6-K6</f>
-        <v>112451</v>
+        <f t="shared" si="1"/>
+        <v>277451</v>
       </c>
       <c r="H6" s="5">
         <v>277451</v>

--- a/model_inputs/financial_reports/imaging/PHSA.xlsx
+++ b/model_inputs/financial_reports/imaging/PHSA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BC6D42-59F9-46DD-8BFC-F43EE610E055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F1AB2D-C720-47B7-A47B-CB6C677CE306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="3930" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,8 +569,8 @@
         <v>1613</v>
       </c>
       <c r="B2" s="4">
-        <f>C2-D2</f>
-        <v>574016.72</v>
+        <f>C2-D2-E2</f>
+        <v>427259.75</v>
       </c>
       <c r="C2" s="5">
         <v>574016.72</v>
@@ -579,14 +579,14 @@
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
         <v>146756.97</v>
       </c>
+      <c r="F2" s="7">
+        <v>426564.27</v>
+      </c>
       <c r="G2" s="6">
-        <f>H2-I2</f>
-        <v>587732</v>
+        <f>H2-I2-J2</f>
+        <v>341000</v>
       </c>
       <c r="H2" s="5">
         <v>587732</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>246732</v>
       </c>
       <c r="K2" s="5">
-        <v>246732</v>
+        <v>341000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -606,8 +606,8 @@
         <v>1713</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B6" si="0">C3-D3</f>
-        <v>330762.73</v>
+        <f t="shared" ref="B3:B6" si="0">C3-D3-E3</f>
+        <v>224633.75</v>
       </c>
       <c r="C3" s="5">
         <v>330762.73</v>
@@ -616,14 +616,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>106128.98</v>
       </c>
       <c r="F3" s="5">
-        <v>106128.98</v>
+        <v>224633.75</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G6" si="1">H3-I3</f>
-        <v>587732</v>
+        <f t="shared" ref="G3:G6" si="1">H3-I3-J3</f>
+        <v>341000</v>
       </c>
       <c r="H3" s="5">
         <v>587732</v>
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>0</v>
+        <v>246732</v>
       </c>
       <c r="K3" s="5">
-        <v>246732</v>
+        <v>341000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>565526.04</v>
+        <v>73537.520000000019</v>
       </c>
       <c r="C4" s="5">
         <v>565526.04</v>
@@ -653,14 +653,14 @@
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>491988.52</v>
       </c>
       <c r="F4" s="5">
-        <v>491988.52</v>
+        <v>73137.38</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>587732</v>
+        <v>341000</v>
       </c>
       <c r="H4" s="5">
         <v>587732</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>246732</v>
       </c>
       <c r="K4" s="5">
-        <v>246732</v>
+        <v>341000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>872219.6</v>
+        <v>34919.289999999921</v>
       </c>
       <c r="C5" s="5">
         <v>872219.6</v>
@@ -690,14 +690,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>837300.31</v>
       </c>
       <c r="F5" s="5">
-        <v>837300.31</v>
+        <v>30713.14</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>587732</v>
+        <v>87732</v>
       </c>
       <c r="H5" s="7">
         <v>587732</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="K5" s="5">
-        <v>500000</v>
+        <v>87732</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>1443885.38</v>
+        <v>176081.01999999979</v>
       </c>
       <c r="C6" s="5">
         <v>1443885.38</v>
@@ -727,14 +727,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>1267804.3600000001</v>
       </c>
       <c r="F6" s="5">
-        <v>1267804.3600000001</v>
+        <v>174491.42</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>587732</v>
+        <v>341000</v>
       </c>
       <c r="H6" s="5">
         <v>587732</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>0</v>
+        <v>246732</v>
       </c>
       <c r="K6" s="5">
-        <v>246732</v>
+        <v>341000</v>
       </c>
     </row>
   </sheetData>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,8 +817,8 @@
         <v>1613</v>
       </c>
       <c r="B2" s="4">
-        <f>C2-D2</f>
-        <v>186472.3</v>
+        <f>C2-D2-E2</f>
+        <v>128509.73999999999</v>
       </c>
       <c r="C2" s="5">
         <v>186472.3</v>
@@ -827,14 +827,14 @@
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
+        <v>57962.559999999998</v>
       </c>
       <c r="F2" s="5">
-        <v>57962.559999999998</v>
+        <v>128509.74</v>
       </c>
       <c r="G2" s="6">
-        <f>H2-I2</f>
-        <v>277451</v>
+        <f>H2-I2-J2</f>
+        <v>217451</v>
       </c>
       <c r="H2" s="5">
         <v>277451</v>
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="K2" s="5">
-        <v>60000</v>
+        <v>217451</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -854,8 +854,8 @@
         <v>1713</v>
       </c>
       <c r="B3" s="4">
-        <f t="shared" ref="B3:B6" si="0">C3-D3</f>
-        <v>201856.67</v>
+        <f t="shared" ref="B3:B6" si="0">C3-D3-E3</f>
+        <v>107835.51000000001</v>
       </c>
       <c r="C3" s="5">
         <v>201856.67</v>
@@ -864,14 +864,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>94021.16</v>
       </c>
       <c r="F3" s="5">
-        <v>94021.16</v>
+        <v>107835.51</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G6" si="1">H3-I3</f>
-        <v>277451</v>
+        <f t="shared" ref="G3:G6" si="1">H3-I3-J3</f>
+        <v>217451</v>
       </c>
       <c r="H3" s="5">
         <v>277451</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="K3" s="5">
-        <v>60000</v>
+        <v>217451</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
       </c>
       <c r="B4" s="4">
         <f t="shared" si="0"/>
-        <v>163654.47</v>
+        <v>82756.040000000008</v>
       </c>
       <c r="C4" s="5">
         <v>163654.47</v>
@@ -901,14 +901,14 @@
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>80898.429999999993</v>
       </c>
       <c r="F4" s="5">
-        <v>80898.429999999993</v>
+        <v>82756.039999999994</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="1"/>
-        <v>277451</v>
+        <v>217451</v>
       </c>
       <c r="H4" s="5">
         <v>277451</v>
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="K4" s="5">
-        <v>60000</v>
+        <v>217451</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>324197.19</v>
+        <v>75668.179999999993</v>
       </c>
       <c r="C5" s="5">
         <v>324197.19</v>
@@ -938,14 +938,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>248529.01</v>
       </c>
       <c r="F5" s="5">
-        <v>248529.01</v>
+        <v>75668.179999999993</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>277451</v>
+        <v>197451</v>
       </c>
       <c r="H5" s="7">
         <v>277451</v>
@@ -954,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="K5" s="5">
-        <v>80000</v>
+        <v>197451</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
       </c>
       <c r="B6" s="4">
         <f t="shared" si="0"/>
-        <v>248063.24</v>
+        <v>44068.799999999988</v>
       </c>
       <c r="C6" s="5">
         <v>248063.24</v>
@@ -975,14 +975,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
+        <v>203994.44</v>
       </c>
       <c r="F6" s="5">
-        <v>203994.44</v>
+        <v>44033.97</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>277451</v>
+        <v>112451</v>
       </c>
       <c r="H6" s="5">
         <v>277451</v>
@@ -991,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>0</v>
+        <v>165000</v>
       </c>
       <c r="K6" s="5">
-        <v>165000</v>
+        <v>112451</v>
       </c>
     </row>
   </sheetData>
